--- a/tables/table1_dim30.xlsx
+++ b/tables/table1_dim30.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Best</t>
   </si>
@@ -35,22 +35,7 @@
     <t>Success Rate</t>
   </si>
   <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>Fc1</t>
-  </si>
-  <si>
-    <t>Fc2</t>
-  </si>
-  <si>
-    <t>Fc6</t>
-  </si>
-  <si>
-    <t>Fc7</t>
-  </si>
-  <si>
-    <t>Fc9</t>
+    <t>Fnc</t>
   </si>
 </sst>
 </file>
@@ -399,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,136 +417,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1258</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8306</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3606</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3992</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>365154.4085</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5136270.5218</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1983532.5341</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2153836.0684</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1203691.0001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.713</v>
-      </c>
-      <c r="C4" t="n">
-        <v>33856.4397</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5666.3679</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10752.8815</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11026.6021</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>17.5224</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33.0115</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.2906</v>
-      </c>
-      <c r="E5" t="n">
-        <v>24.9784</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.7275</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06859999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0166</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>114.4199</v>
-      </c>
-      <c r="C7" t="n">
-        <v>303.4593</v>
-      </c>
-      <c r="D7" t="n">
-        <v>185.0614</v>
-      </c>
-      <c r="E7" t="n">
-        <v>191.265</v>
-      </c>
-      <c r="F7" t="n">
-        <v>42.6768</v>
-      </c>
-      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
